--- a/biology/Zoologie/Geai/Geai.xlsx
+++ b/biology/Zoologie/Geai/Geai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de Geai désigne plusieurs espèces d'oiseaux, notamment :
 Coucou geai — Clamator glandarius (Linnaeus, 1758).
@@ -490,7 +502,7 @@
 Geai vert – Cyanocorax yncas (Boddaert, 1783).
 Geai buissonnier - Aphelocoma californica
 Le "geai moqueur" est un animal fictif de la série de films Hunger Games
-Le terme geai dérive probablement du bas latin Gaius, un sobriquet populaire[1].
+Le terme geai dérive probablement du bas latin Gaius, un sobriquet populaire.
 Le geai « cajole ». Quand il pousse un cri, il cajacte, cacarde, frigulote ou jase. Le nom de genre du Geai des chênes est garrulus, ce qui signifie « bavard ».
 Cet oiseau apparaît dans un dicton printanier [Où ?] : « En mai, fleurit le hêtre et chante le geai. »[réf. souhaitée]
 Geai est aussi le titre d'un roman de Christian Bobin publié en 1998.
@@ -522,7 +534,9 @@
           <t>Les geais de la CINFO</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Geai à ailes blanches – Platysmurus leucopterus
 Geai à calotte azur – Cyanocorax heilprini
